--- a/test_file/pull_down.xlsx
+++ b/test_file/pull_down.xlsx
@@ -15,14 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>填表说明：
-1. 请严格按照本模板填写导入用户信息，不要修改表头信息（本表1、2行）
-2. 用户姓名、手机号是必填项。用户姓名需在2 - 30个字符之间，头尾不允许空格；手机号按照11位手机号填写，头尾不允许空格，不需加国家码前缀。
-3. 身份证为非必填项。若需填写请严格按照国家有效身份证填写，头尾不允许空格。
-4. 用户组为非必填项。用户组名称需在2 - 30个字符之间，头尾不允许空格。若填写此项，则代表该用户加入指定用户组。若该用户组已经在本机构存在，则意为加入该用户组（不影响现有用户组成员）</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>名称</t>
   </si>
@@ -40,24 +33,23 @@
   </si>
   <si>
     <t>坤</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>world</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -81,14 +73,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="false">
       <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyProtection="true">
-      <alignment wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="false" applyProtection="true">
       <alignment/>
@@ -369,29 +357,24 @@
     <col max="3" min="1" style="1" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="80" customHeight="true">
+    <row r="1" s="2" customFormat="true">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" s="3" customFormat="true">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:X1"/>
-  </mergeCells>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation allowBlank="true" sqref="B2:B3000" type="list">
       <formula1>下拉菜单测试选项数据表!$A$1:$C$1</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="true" sqref="C2:C3000" type="list">
+      <formula1>下拉菜单测试选项数据表!$A$2:$B$2</formula1>
     </dataValidation>
   </dataValidations>
 </worksheet>
@@ -406,13 +389,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
         <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/test_file/pull_down.xlsx
+++ b/test_file/pull_down.xlsx
@@ -15,7 +15,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>填表说明：
+1. 请严格按照本模板填写导入用户信息，不要修改表头信息（本表1、2行）
+2. 用户姓名、手机号是必填项。用户姓名需在2 - 30个字符之间，头尾不允许空格；手机号按照11位手机号填写，头尾不允许空格，不需加国家码前缀。
+3. 身份证为非必填项。若需填写请严格按照国家有效身份证填写，头尾不允许空格。
+4. 用户组为非必填项。用户组名称需在2 - 30个字符之间，头尾不允许空格。若填写此项，则代表该用户加入指定用户组。若该用户组已经在本机构存在，则意为加入该用户组（不影响现有用户组成员）</t>
+  </si>
   <si>
     <t>名称</t>
   </si>
@@ -33,23 +40,24 @@
   </si>
   <si>
     <t>坤</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>world</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -73,10 +81,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="false">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="false" applyProtection="true">
       <alignment/>
+      <protection hidden="false" locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="false" applyProtection="true">
       <alignment/>
@@ -357,24 +369,30 @@
     <col max="3" min="1" style="1" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
+    <row r="1" ht="80" customHeight="true">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" s="3" customFormat="true">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation allowBlank="true" sqref="B2:B3000" type="list">
+  <sheetProtection password="ECC7" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:X1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" sqref="B3:B3000" type="list">
       <formula1>下拉菜单测试选项数据表!$A$1:$C$1</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="true" sqref="C2:C3000" type="list">
-      <formula1>下拉菜单测试选项数据表!$A$2:$B$2</formula1>
     </dataValidation>
   </dataValidations>
 </worksheet>
@@ -389,23 +407,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="ECC7" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
 </worksheet>
 </file>